--- a/INLog.xlsx
+++ b/INLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{73480163-FD41-4C42-8920-71C251657E9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36672473-4682-4081-B527-E77B0333438E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8B70657C-29D5-49E6-ACD9-4E39DF125711}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="48">
   <si>
     <t>Date</t>
   </si>
@@ -134,6 +134,51 @@
   </si>
   <si>
     <t>CF (30g)</t>
+  </si>
+  <si>
+    <t>Misc</t>
+  </si>
+  <si>
+    <t>Bundle Packaging</t>
+  </si>
+  <si>
+    <t>test recored 1</t>
+  </si>
+  <si>
+    <t>Tape</t>
+  </si>
+  <si>
+    <t>Cardbox (L)</t>
+  </si>
+  <si>
+    <t>Cardbox (M)</t>
+  </si>
+  <si>
+    <t>Cardbox (S)</t>
+  </si>
+  <si>
+    <t>SC (65g)</t>
+  </si>
+  <si>
+    <t>SC (30g)</t>
+  </si>
+  <si>
+    <t>PH (65g)</t>
+  </si>
+  <si>
+    <t>PH (30g)</t>
+  </si>
+  <si>
+    <t>SC (5KG)</t>
+  </si>
+  <si>
+    <t>SC (330g)</t>
+  </si>
+  <si>
+    <t>PH (5KG)</t>
+  </si>
+  <si>
+    <t>PH (330g)</t>
   </si>
 </sst>
 </file>
@@ -486,10 +531,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6403F870-72AC-41C9-92A2-864504D91BE2}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:G53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53:G106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1175,7 +1220,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>44715.469108796293</v>
       </c>
@@ -1189,7 +1234,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>44715.469097222223</v>
       </c>
@@ -1203,7 +1248,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>44715.469097222223</v>
       </c>
@@ -1217,7 +1262,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>44715.469097222223</v>
       </c>
@@ -1229,6 +1274,924 @@
       </c>
       <c r="E52">
         <v>342</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>44715.759432870371</v>
+      </c>
+      <c r="B53" t="s">
+        <v>33</v>
+      </c>
+      <c r="C53" t="s">
+        <v>34</v>
+      </c>
+      <c r="E53">
+        <v>2432</v>
+      </c>
+      <c r="G53" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>44715.759432870371</v>
+      </c>
+      <c r="B54" t="s">
+        <v>33</v>
+      </c>
+      <c r="C54" t="s">
+        <v>36</v>
+      </c>
+      <c r="E54">
+        <v>56</v>
+      </c>
+      <c r="G54" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>44715.759432870371</v>
+      </c>
+      <c r="B55" t="s">
+        <v>33</v>
+      </c>
+      <c r="C55" t="s">
+        <v>37</v>
+      </c>
+      <c r="E55">
+        <v>5654</v>
+      </c>
+      <c r="G55" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>44715.759432870371</v>
+      </c>
+      <c r="B56" t="s">
+        <v>33</v>
+      </c>
+      <c r="C56" t="s">
+        <v>38</v>
+      </c>
+      <c r="E56">
+        <v>4789</v>
+      </c>
+      <c r="G56" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>44715.759432870371</v>
+      </c>
+      <c r="B57" t="s">
+        <v>33</v>
+      </c>
+      <c r="C57" t="s">
+        <v>39</v>
+      </c>
+      <c r="E57">
+        <v>546</v>
+      </c>
+      <c r="G57" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>44715.759432870371</v>
+      </c>
+      <c r="B58" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" t="s">
+        <v>40</v>
+      </c>
+      <c r="E58">
+        <v>81</v>
+      </c>
+      <c r="G58" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>44715.759432870371</v>
+      </c>
+      <c r="B59" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" t="s">
+        <v>41</v>
+      </c>
+      <c r="E59">
+        <v>837</v>
+      </c>
+      <c r="G59" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>44715.759432870371</v>
+      </c>
+      <c r="B60" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" t="s">
+        <v>42</v>
+      </c>
+      <c r="E60">
+        <v>3</v>
+      </c>
+      <c r="G60" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>44715.759432870371</v>
+      </c>
+      <c r="B61" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" t="s">
+        <v>43</v>
+      </c>
+      <c r="E61">
+        <v>458</v>
+      </c>
+      <c r="G61" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>44715.759432870371</v>
+      </c>
+      <c r="B62" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" t="s">
+        <v>31</v>
+      </c>
+      <c r="E62">
+        <v>456</v>
+      </c>
+      <c r="G62" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>44715.759432870371</v>
+      </c>
+      <c r="B63" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" t="s">
+        <v>32</v>
+      </c>
+      <c r="E63">
+        <v>898</v>
+      </c>
+      <c r="G63" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>44715.759432870371</v>
+      </c>
+      <c r="B64" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" t="s">
+        <v>15</v>
+      </c>
+      <c r="E64">
+        <v>8</v>
+      </c>
+      <c r="G64" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>44715.759432870371</v>
+      </c>
+      <c r="B65" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" t="s">
+        <v>16</v>
+      </c>
+      <c r="E65">
+        <v>76</v>
+      </c>
+      <c r="G65" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>44715.759432870371</v>
+      </c>
+      <c r="B66" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" t="s">
+        <v>19</v>
+      </c>
+      <c r="E66">
+        <v>23</v>
+      </c>
+      <c r="G66" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>44715.759432870371</v>
+      </c>
+      <c r="B67" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" t="s">
+        <v>20</v>
+      </c>
+      <c r="E67">
+        <v>234</v>
+      </c>
+      <c r="G67" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>44715.759432870371</v>
+      </c>
+      <c r="B68" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" t="s">
+        <v>23</v>
+      </c>
+      <c r="E68">
+        <v>89</v>
+      </c>
+      <c r="G68" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>44715.759432870371</v>
+      </c>
+      <c r="B69" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" t="s">
+        <v>24</v>
+      </c>
+      <c r="E69">
+        <v>78</v>
+      </c>
+      <c r="G69" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>44715.759421296294</v>
+      </c>
+      <c r="B70" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" t="s">
+        <v>27</v>
+      </c>
+      <c r="E70">
+        <v>234</v>
+      </c>
+      <c r="G70" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>44715.759421296294</v>
+      </c>
+      <c r="B71" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" t="s">
+        <v>28</v>
+      </c>
+      <c r="E71">
+        <v>87</v>
+      </c>
+      <c r="G71" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>44715.759421296294</v>
+      </c>
+      <c r="B72" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" t="s">
+        <v>10</v>
+      </c>
+      <c r="E72">
+        <v>7383783</v>
+      </c>
+      <c r="G72" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>44715.759421296294</v>
+      </c>
+      <c r="B73" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73" t="s">
+        <v>11</v>
+      </c>
+      <c r="E73">
+        <v>34</v>
+      </c>
+      <c r="G73" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>44715.759421296294</v>
+      </c>
+      <c r="B74" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74" t="s">
+        <v>12</v>
+      </c>
+      <c r="E74">
+        <v>342</v>
+      </c>
+      <c r="G74" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>44715.759421296294</v>
+      </c>
+      <c r="B75" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" t="s">
+        <v>44</v>
+      </c>
+      <c r="E75">
+        <v>53</v>
+      </c>
+      <c r="G75" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>44715.759421296294</v>
+      </c>
+      <c r="B76" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" t="s">
+        <v>45</v>
+      </c>
+      <c r="E76">
+        <v>5</v>
+      </c>
+      <c r="G76" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>44715.759421296294</v>
+      </c>
+      <c r="B77" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77" t="s">
+        <v>40</v>
+      </c>
+      <c r="E77">
+        <v>81</v>
+      </c>
+      <c r="G77" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>44715.759421296294</v>
+      </c>
+      <c r="B78" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" t="s">
+        <v>41</v>
+      </c>
+      <c r="E78">
+        <v>837</v>
+      </c>
+      <c r="G78" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>44715.759421296294</v>
+      </c>
+      <c r="B79" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E79">
+        <v>3906</v>
+      </c>
+      <c r="G79" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>44715.759421296294</v>
+      </c>
+      <c r="B80" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" t="s">
+        <v>47</v>
+      </c>
+      <c r="E80">
+        <v>38</v>
+      </c>
+      <c r="G80" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>44715.759421296294</v>
+      </c>
+      <c r="B81" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" t="s">
+        <v>42</v>
+      </c>
+      <c r="E81">
+        <v>3</v>
+      </c>
+      <c r="G81" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>44715.759421296294</v>
+      </c>
+      <c r="B82" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82" t="s">
+        <v>43</v>
+      </c>
+      <c r="E82">
+        <v>458</v>
+      </c>
+      <c r="G82" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>44715.759421296294</v>
+      </c>
+      <c r="B83" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83" t="s">
+        <v>29</v>
+      </c>
+      <c r="E83">
+        <v>37</v>
+      </c>
+      <c r="G83" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>44715.759421296294</v>
+      </c>
+      <c r="B84" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84" t="s">
+        <v>30</v>
+      </c>
+      <c r="E84">
+        <v>7</v>
+      </c>
+      <c r="G84" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>44715.759421296294</v>
+      </c>
+      <c r="B85" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85" t="s">
+        <v>31</v>
+      </c>
+      <c r="E85">
+        <v>456</v>
+      </c>
+      <c r="G85" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>44715.759421296294</v>
+      </c>
+      <c r="B86" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86" t="s">
+        <v>32</v>
+      </c>
+      <c r="E86">
+        <v>898</v>
+      </c>
+      <c r="G86" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>44715.759421296294</v>
+      </c>
+      <c r="B87" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87" t="s">
+        <v>13</v>
+      </c>
+      <c r="E87">
+        <v>2432</v>
+      </c>
+      <c r="G87" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>44715.759421296294</v>
+      </c>
+      <c r="B88" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88" t="s">
+        <v>14</v>
+      </c>
+      <c r="E88">
+        <v>79</v>
+      </c>
+      <c r="G88" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>44715.759421296294</v>
+      </c>
+      <c r="B89" t="s">
+        <v>7</v>
+      </c>
+      <c r="C89" t="s">
+        <v>15</v>
+      </c>
+      <c r="E89">
+        <v>8</v>
+      </c>
+      <c r="G89" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>44715.759421296294</v>
+      </c>
+      <c r="B90" t="s">
+        <v>7</v>
+      </c>
+      <c r="C90" t="s">
+        <v>16</v>
+      </c>
+      <c r="E90">
+        <v>76</v>
+      </c>
+      <c r="G90" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>44715.759421296294</v>
+      </c>
+      <c r="B91" t="s">
+        <v>7</v>
+      </c>
+      <c r="C91" t="s">
+        <v>17</v>
+      </c>
+      <c r="E91">
+        <v>56</v>
+      </c>
+      <c r="G91" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>44715.759421296294</v>
+      </c>
+      <c r="B92" t="s">
+        <v>7</v>
+      </c>
+      <c r="C92" t="s">
+        <v>18</v>
+      </c>
+      <c r="E92">
+        <v>3838</v>
+      </c>
+      <c r="G92" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>44715.759409722225</v>
+      </c>
+      <c r="B93" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93" t="s">
+        <v>19</v>
+      </c>
+      <c r="E93">
+        <v>23</v>
+      </c>
+      <c r="G93" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>44715.759409722225</v>
+      </c>
+      <c r="B94" t="s">
+        <v>7</v>
+      </c>
+      <c r="C94" t="s">
+        <v>20</v>
+      </c>
+      <c r="E94">
+        <v>234</v>
+      </c>
+      <c r="G94" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>44715.759409722225</v>
+      </c>
+      <c r="B95" t="s">
+        <v>7</v>
+      </c>
+      <c r="C95" t="s">
+        <v>21</v>
+      </c>
+      <c r="E95">
+        <v>5654</v>
+      </c>
+      <c r="G95" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>44715.759409722225</v>
+      </c>
+      <c r="B96" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96" t="s">
+        <v>22</v>
+      </c>
+      <c r="E96">
+        <v>23</v>
+      </c>
+      <c r="G96" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>44715.759409722225</v>
+      </c>
+      <c r="B97" t="s">
+        <v>7</v>
+      </c>
+      <c r="C97" t="s">
+        <v>23</v>
+      </c>
+      <c r="E97">
+        <v>89</v>
+      </c>
+      <c r="G97" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>44715.759409722225</v>
+      </c>
+      <c r="B98" t="s">
+        <v>7</v>
+      </c>
+      <c r="C98" t="s">
+        <v>24</v>
+      </c>
+      <c r="E98">
+        <v>78</v>
+      </c>
+      <c r="G98" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>44715.759409722225</v>
+      </c>
+      <c r="B99" t="s">
+        <v>7</v>
+      </c>
+      <c r="C99" t="s">
+        <v>25</v>
+      </c>
+      <c r="E99">
+        <v>4789</v>
+      </c>
+      <c r="G99" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>44715.759409722225</v>
+      </c>
+      <c r="B100" t="s">
+        <v>7</v>
+      </c>
+      <c r="C100" t="s">
+        <v>26</v>
+      </c>
+      <c r="E100">
+        <v>12</v>
+      </c>
+      <c r="G100" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>44715.759409722225</v>
+      </c>
+      <c r="B101" t="s">
+        <v>7</v>
+      </c>
+      <c r="C101" t="s">
+        <v>27</v>
+      </c>
+      <c r="E101">
+        <v>234</v>
+      </c>
+      <c r="G101" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>44715.759409722225</v>
+      </c>
+      <c r="B102" t="s">
+        <v>7</v>
+      </c>
+      <c r="C102" t="s">
+        <v>28</v>
+      </c>
+      <c r="E102">
+        <v>87</v>
+      </c>
+      <c r="G102" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>44715.759409722225</v>
+      </c>
+      <c r="B103" t="s">
+        <v>7</v>
+      </c>
+      <c r="C103" t="s">
+        <v>8</v>
+      </c>
+      <c r="E103">
+        <v>546</v>
+      </c>
+      <c r="G103" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>44715.759409722225</v>
+      </c>
+      <c r="B104" t="s">
+        <v>7</v>
+      </c>
+      <c r="C104" t="s">
+        <v>10</v>
+      </c>
+      <c r="E104">
+        <v>77</v>
+      </c>
+      <c r="G104" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>44715.759409722225</v>
+      </c>
+      <c r="B105" t="s">
+        <v>7</v>
+      </c>
+      <c r="C105" t="s">
+        <v>11</v>
+      </c>
+      <c r="E105">
+        <v>34</v>
+      </c>
+      <c r="G105" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>44715.759409722225</v>
+      </c>
+      <c r="B106" t="s">
+        <v>7</v>
+      </c>
+      <c r="C106" t="s">
+        <v>12</v>
+      </c>
+      <c r="E106">
+        <v>342</v>
+      </c>
+      <c r="G106" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/INLog.xlsx
+++ b/INLog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36672473-4682-4081-B527-E77B0333438E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F568664-B35F-4CEA-A997-6BD5F3881446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8B70657C-29D5-49E6-ACD9-4E39DF125711}"/>
+    <workbookView xWindow="32355" yWindow="1260" windowWidth="17280" windowHeight="8880" xr2:uid="{8B70657C-29D5-49E6-ACD9-4E39DF125711}"/>
   </bookViews>
   <sheets>
     <sheet name="Exported_log" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="49">
   <si>
     <t>Date</t>
   </si>
@@ -179,6 +179,9 @@
   </si>
   <si>
     <t>PH (330g)</t>
+  </si>
+  <si>
+    <t>Pokemon (80g)</t>
   </si>
 </sst>
 </file>
@@ -531,10 +534,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6403F870-72AC-41C9-92A2-864504D91BE2}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G106"/>
+  <dimension ref="A1:G211"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53:G106"/>
+    <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
+      <selection activeCell="A212" sqref="A212:G212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2194,6 +2197,1587 @@
         <v>35</v>
       </c>
     </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>44726.042060185187</v>
+      </c>
+      <c r="B107" t="s">
+        <v>9</v>
+      </c>
+      <c r="C107" t="s">
+        <v>31</v>
+      </c>
+      <c r="E107">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>44726.042060185187</v>
+      </c>
+      <c r="B108" t="s">
+        <v>9</v>
+      </c>
+      <c r="C108" t="s">
+        <v>32</v>
+      </c>
+      <c r="E108">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>44726.042060185187</v>
+      </c>
+      <c r="B109" t="s">
+        <v>9</v>
+      </c>
+      <c r="C109" t="s">
+        <v>20</v>
+      </c>
+      <c r="E109">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>44726.042060185187</v>
+      </c>
+      <c r="B110" t="s">
+        <v>9</v>
+      </c>
+      <c r="C110" t="s">
+        <v>23</v>
+      </c>
+      <c r="E110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>44726.042060185187</v>
+      </c>
+      <c r="B111" t="s">
+        <v>7</v>
+      </c>
+      <c r="C111" t="s">
+        <v>42</v>
+      </c>
+      <c r="E111">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>44726.042060185187</v>
+      </c>
+      <c r="B112" t="s">
+        <v>7</v>
+      </c>
+      <c r="C112" t="s">
+        <v>14</v>
+      </c>
+      <c r="E112">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>44726.042060185187</v>
+      </c>
+      <c r="B113" t="s">
+        <v>7</v>
+      </c>
+      <c r="C113" t="s">
+        <v>19</v>
+      </c>
+      <c r="E113">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>44726.042060185187</v>
+      </c>
+      <c r="B114" t="s">
+        <v>7</v>
+      </c>
+      <c r="C114" t="s">
+        <v>22</v>
+      </c>
+      <c r="E114">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>44726.484733796293</v>
+      </c>
+      <c r="B115" t="s">
+        <v>7</v>
+      </c>
+      <c r="C115" t="s">
+        <v>45</v>
+      </c>
+      <c r="E115">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>44726.484733796293</v>
+      </c>
+      <c r="B116" t="s">
+        <v>7</v>
+      </c>
+      <c r="C116" t="s">
+        <v>41</v>
+      </c>
+      <c r="E116">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>44726.484733796293</v>
+      </c>
+      <c r="B117" t="s">
+        <v>7</v>
+      </c>
+      <c r="C117" t="s">
+        <v>31</v>
+      </c>
+      <c r="E117">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>44726.484733796293</v>
+      </c>
+      <c r="B118" t="s">
+        <v>7</v>
+      </c>
+      <c r="C118" t="s">
+        <v>32</v>
+      </c>
+      <c r="E118">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>44726.484733796293</v>
+      </c>
+      <c r="B119" t="s">
+        <v>7</v>
+      </c>
+      <c r="C119" t="s">
+        <v>14</v>
+      </c>
+      <c r="E119">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>44726.484733796293</v>
+      </c>
+      <c r="B120" t="s">
+        <v>7</v>
+      </c>
+      <c r="C120" t="s">
+        <v>19</v>
+      </c>
+      <c r="E120">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>44726.484733796293</v>
+      </c>
+      <c r="B121" t="s">
+        <v>7</v>
+      </c>
+      <c r="C121" t="s">
+        <v>22</v>
+      </c>
+      <c r="E121">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>44726.484733796293</v>
+      </c>
+      <c r="B122" t="s">
+        <v>7</v>
+      </c>
+      <c r="C122" t="s">
+        <v>24</v>
+      </c>
+      <c r="E122">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>44726.484733796293</v>
+      </c>
+      <c r="B123" t="s">
+        <v>7</v>
+      </c>
+      <c r="C123" t="s">
+        <v>27</v>
+      </c>
+      <c r="E123">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>44726.487187500003</v>
+      </c>
+      <c r="B124" t="s">
+        <v>7</v>
+      </c>
+      <c r="C124" t="s">
+        <v>47</v>
+      </c>
+      <c r="E124">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>44726.487187500003</v>
+      </c>
+      <c r="B125" t="s">
+        <v>7</v>
+      </c>
+      <c r="C125" t="s">
+        <v>31</v>
+      </c>
+      <c r="E125">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>44726.487187500003</v>
+      </c>
+      <c r="B126" t="s">
+        <v>7</v>
+      </c>
+      <c r="C126" t="s">
+        <v>32</v>
+      </c>
+      <c r="E126">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>44726.487187500003</v>
+      </c>
+      <c r="B127" t="s">
+        <v>7</v>
+      </c>
+      <c r="C127" t="s">
+        <v>14</v>
+      </c>
+      <c r="E127">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>44726.487187500003</v>
+      </c>
+      <c r="B128" t="s">
+        <v>7</v>
+      </c>
+      <c r="C128" t="s">
+        <v>18</v>
+      </c>
+      <c r="E128">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>44726.487187500003</v>
+      </c>
+      <c r="B129" t="s">
+        <v>7</v>
+      </c>
+      <c r="C129" t="s">
+        <v>19</v>
+      </c>
+      <c r="E129">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>44726.487187500003</v>
+      </c>
+      <c r="B130" t="s">
+        <v>7</v>
+      </c>
+      <c r="C130" t="s">
+        <v>20</v>
+      </c>
+      <c r="E130">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>44726.488796296297</v>
+      </c>
+      <c r="B131" t="s">
+        <v>7</v>
+      </c>
+      <c r="C131" t="s">
+        <v>42</v>
+      </c>
+      <c r="E131">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>44726.488796296297</v>
+      </c>
+      <c r="B132" t="s">
+        <v>7</v>
+      </c>
+      <c r="C132" t="s">
+        <v>43</v>
+      </c>
+      <c r="E132">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>44726.488796296297</v>
+      </c>
+      <c r="B133" t="s">
+        <v>7</v>
+      </c>
+      <c r="C133" t="s">
+        <v>31</v>
+      </c>
+      <c r="E133">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>44726.488796296297</v>
+      </c>
+      <c r="B134" t="s">
+        <v>7</v>
+      </c>
+      <c r="C134" t="s">
+        <v>32</v>
+      </c>
+      <c r="E134">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>44726.488796296297</v>
+      </c>
+      <c r="B135" t="s">
+        <v>7</v>
+      </c>
+      <c r="C135" t="s">
+        <v>15</v>
+      </c>
+      <c r="E135">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>44726.488796296297</v>
+      </c>
+      <c r="B136" t="s">
+        <v>7</v>
+      </c>
+      <c r="C136" t="s">
+        <v>16</v>
+      </c>
+      <c r="E136">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>44726.488796296297</v>
+      </c>
+      <c r="B137" t="s">
+        <v>7</v>
+      </c>
+      <c r="C137" t="s">
+        <v>19</v>
+      </c>
+      <c r="E137">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>44726.488796296297</v>
+      </c>
+      <c r="B138" t="s">
+        <v>7</v>
+      </c>
+      <c r="C138" t="s">
+        <v>24</v>
+      </c>
+      <c r="E138">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>44726.488796296297</v>
+      </c>
+      <c r="B139" t="s">
+        <v>7</v>
+      </c>
+      <c r="C139" t="s">
+        <v>27</v>
+      </c>
+      <c r="E139">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>44726.536597222221</v>
+      </c>
+      <c r="B140" t="s">
+        <v>7</v>
+      </c>
+      <c r="C140" t="s">
+        <v>48</v>
+      </c>
+      <c r="E140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>44726.536597222221</v>
+      </c>
+      <c r="B141" t="s">
+        <v>7</v>
+      </c>
+      <c r="C141" t="s">
+        <v>31</v>
+      </c>
+      <c r="E141">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>44726.536597222221</v>
+      </c>
+      <c r="B142" t="s">
+        <v>7</v>
+      </c>
+      <c r="C142" t="s">
+        <v>15</v>
+      </c>
+      <c r="E142">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>44726.536597222221</v>
+      </c>
+      <c r="B143" t="s">
+        <v>7</v>
+      </c>
+      <c r="C143" t="s">
+        <v>16</v>
+      </c>
+      <c r="E143">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>44726.536597222221</v>
+      </c>
+      <c r="B144" t="s">
+        <v>7</v>
+      </c>
+      <c r="C144" t="s">
+        <v>22</v>
+      </c>
+      <c r="E144">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>44726.536597222221</v>
+      </c>
+      <c r="B145" t="s">
+        <v>7</v>
+      </c>
+      <c r="C145" t="s">
+        <v>28</v>
+      </c>
+      <c r="E145">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>44726.536504629628</v>
+      </c>
+      <c r="B146" t="s">
+        <v>7</v>
+      </c>
+      <c r="C146" t="s">
+        <v>40</v>
+      </c>
+      <c r="E146">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>44726.536504629628</v>
+      </c>
+      <c r="B147" t="s">
+        <v>7</v>
+      </c>
+      <c r="C147" t="s">
+        <v>41</v>
+      </c>
+      <c r="E147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>44726.536504629628</v>
+      </c>
+      <c r="B148" t="s">
+        <v>7</v>
+      </c>
+      <c r="C148" t="s">
+        <v>47</v>
+      </c>
+      <c r="E148">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>44726.536504629628</v>
+      </c>
+      <c r="B149" t="s">
+        <v>7</v>
+      </c>
+      <c r="C149" t="s">
+        <v>42</v>
+      </c>
+      <c r="E149">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>44726.536504629628</v>
+      </c>
+      <c r="B150" t="s">
+        <v>7</v>
+      </c>
+      <c r="C150" t="s">
+        <v>43</v>
+      </c>
+      <c r="E150">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>44726.536504629628</v>
+      </c>
+      <c r="B151" t="s">
+        <v>7</v>
+      </c>
+      <c r="C151" t="s">
+        <v>31</v>
+      </c>
+      <c r="E151">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>44726.536504629628</v>
+      </c>
+      <c r="B152" t="s">
+        <v>7</v>
+      </c>
+      <c r="C152" t="s">
+        <v>32</v>
+      </c>
+      <c r="E152">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>44726.536504629628</v>
+      </c>
+      <c r="B153" t="s">
+        <v>7</v>
+      </c>
+      <c r="C153" t="s">
+        <v>14</v>
+      </c>
+      <c r="E153">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>44726.536504629628</v>
+      </c>
+      <c r="B154" t="s">
+        <v>7</v>
+      </c>
+      <c r="C154" t="s">
+        <v>19</v>
+      </c>
+      <c r="E154">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>44726.536504629628</v>
+      </c>
+      <c r="B155" t="s">
+        <v>7</v>
+      </c>
+      <c r="C155" t="s">
+        <v>20</v>
+      </c>
+      <c r="E155">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>44726.552835648145</v>
+      </c>
+      <c r="B156" t="s">
+        <v>7</v>
+      </c>
+      <c r="C156" t="s">
+        <v>41</v>
+      </c>
+      <c r="E156">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>44726.552835648145</v>
+      </c>
+      <c r="B157" t="s">
+        <v>7</v>
+      </c>
+      <c r="C157" t="s">
+        <v>31</v>
+      </c>
+      <c r="E157">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>44726.552835648145</v>
+      </c>
+      <c r="B158" t="s">
+        <v>7</v>
+      </c>
+      <c r="C158" t="s">
+        <v>32</v>
+      </c>
+      <c r="E158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>44726.552835648145</v>
+      </c>
+      <c r="B159" t="s">
+        <v>7</v>
+      </c>
+      <c r="C159" t="s">
+        <v>18</v>
+      </c>
+      <c r="E159">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>44726.552835648145</v>
+      </c>
+      <c r="B160" t="s">
+        <v>7</v>
+      </c>
+      <c r="C160" t="s">
+        <v>19</v>
+      </c>
+      <c r="E160">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>44726.552835648145</v>
+      </c>
+      <c r="B161" t="s">
+        <v>7</v>
+      </c>
+      <c r="C161" t="s">
+        <v>24</v>
+      </c>
+      <c r="E161">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>44726.552233796298</v>
+      </c>
+      <c r="B162" t="s">
+        <v>7</v>
+      </c>
+      <c r="C162" t="s">
+        <v>47</v>
+      </c>
+      <c r="E162">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>44726.552233796298</v>
+      </c>
+      <c r="B163" t="s">
+        <v>7</v>
+      </c>
+      <c r="C163" t="s">
+        <v>15</v>
+      </c>
+      <c r="E163">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>44726.552233796298</v>
+      </c>
+      <c r="B164" t="s">
+        <v>7</v>
+      </c>
+      <c r="C164" t="s">
+        <v>16</v>
+      </c>
+      <c r="E164">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>44726.552233796298</v>
+      </c>
+      <c r="B165" t="s">
+        <v>7</v>
+      </c>
+      <c r="C165" t="s">
+        <v>19</v>
+      </c>
+      <c r="E165">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>44726.552222222221</v>
+      </c>
+      <c r="B166" t="s">
+        <v>7</v>
+      </c>
+      <c r="C166" t="s">
+        <v>22</v>
+      </c>
+      <c r="E166">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>44726.552141203705</v>
+      </c>
+      <c r="B167" t="s">
+        <v>7</v>
+      </c>
+      <c r="C167" t="s">
+        <v>47</v>
+      </c>
+      <c r="E167">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>44726.552141203705</v>
+      </c>
+      <c r="B168" t="s">
+        <v>7</v>
+      </c>
+      <c r="C168" t="s">
+        <v>32</v>
+      </c>
+      <c r="E168">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>44726.552141203705</v>
+      </c>
+      <c r="B169" t="s">
+        <v>7</v>
+      </c>
+      <c r="C169" t="s">
+        <v>18</v>
+      </c>
+      <c r="E169">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>44726.552141203705</v>
+      </c>
+      <c r="B170" t="s">
+        <v>7</v>
+      </c>
+      <c r="C170" t="s">
+        <v>19</v>
+      </c>
+      <c r="E170">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>44726.552141203705</v>
+      </c>
+      <c r="B171" t="s">
+        <v>7</v>
+      </c>
+      <c r="C171" t="s">
+        <v>20</v>
+      </c>
+      <c r="E171">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>44726.550196759257</v>
+      </c>
+      <c r="B172" t="s">
+        <v>7</v>
+      </c>
+      <c r="C172" t="s">
+        <v>15</v>
+      </c>
+      <c r="E172">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>44726.550196759257</v>
+      </c>
+      <c r="B173" t="s">
+        <v>7</v>
+      </c>
+      <c r="C173" t="s">
+        <v>28</v>
+      </c>
+      <c r="E173">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>44726.550196759257</v>
+      </c>
+      <c r="B174" t="s">
+        <v>7</v>
+      </c>
+      <c r="C174" t="s">
+        <v>11</v>
+      </c>
+      <c r="E174">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>44715.759421296294</v>
+      </c>
+      <c r="B175" t="s">
+        <v>9</v>
+      </c>
+      <c r="C175" t="s">
+        <v>27</v>
+      </c>
+      <c r="E175">
+        <v>234</v>
+      </c>
+      <c r="G175" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>44715.759421296294</v>
+      </c>
+      <c r="B176" t="s">
+        <v>9</v>
+      </c>
+      <c r="C176" t="s">
+        <v>28</v>
+      </c>
+      <c r="E176">
+        <v>87</v>
+      </c>
+      <c r="G176" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>44715.759421296294</v>
+      </c>
+      <c r="B177" t="s">
+        <v>9</v>
+      </c>
+      <c r="C177" t="s">
+        <v>10</v>
+      </c>
+      <c r="E177">
+        <v>7383783</v>
+      </c>
+      <c r="G177" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>44715.759421296294</v>
+      </c>
+      <c r="B178" t="s">
+        <v>9</v>
+      </c>
+      <c r="C178" t="s">
+        <v>11</v>
+      </c>
+      <c r="E178">
+        <v>34</v>
+      </c>
+      <c r="G178" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>44715.759421296294</v>
+      </c>
+      <c r="B179" t="s">
+        <v>9</v>
+      </c>
+      <c r="C179" t="s">
+        <v>12</v>
+      </c>
+      <c r="E179">
+        <v>342</v>
+      </c>
+      <c r="G179" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>44715.759421296294</v>
+      </c>
+      <c r="B180" t="s">
+        <v>7</v>
+      </c>
+      <c r="C180" t="s">
+        <v>44</v>
+      </c>
+      <c r="E180">
+        <v>53</v>
+      </c>
+      <c r="G180" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>44715.759421296294</v>
+      </c>
+      <c r="B181" t="s">
+        <v>7</v>
+      </c>
+      <c r="C181" t="s">
+        <v>45</v>
+      </c>
+      <c r="E181">
+        <v>5</v>
+      </c>
+      <c r="G181" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>44715.759421296294</v>
+      </c>
+      <c r="B182" t="s">
+        <v>7</v>
+      </c>
+      <c r="C182" t="s">
+        <v>40</v>
+      </c>
+      <c r="E182">
+        <v>81</v>
+      </c>
+      <c r="G182" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>44715.759421296294</v>
+      </c>
+      <c r="B183" t="s">
+        <v>7</v>
+      </c>
+      <c r="C183" t="s">
+        <v>41</v>
+      </c>
+      <c r="E183">
+        <v>837</v>
+      </c>
+      <c r="G183" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>44715.759421296294</v>
+      </c>
+      <c r="B184" t="s">
+        <v>7</v>
+      </c>
+      <c r="C184" t="s">
+        <v>46</v>
+      </c>
+      <c r="E184">
+        <v>3906</v>
+      </c>
+      <c r="G184" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>44715.759421296294</v>
+      </c>
+      <c r="B185" t="s">
+        <v>7</v>
+      </c>
+      <c r="C185" t="s">
+        <v>47</v>
+      </c>
+      <c r="E185">
+        <v>38</v>
+      </c>
+      <c r="G185" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>44715.759421296294</v>
+      </c>
+      <c r="B186" t="s">
+        <v>7</v>
+      </c>
+      <c r="C186" t="s">
+        <v>42</v>
+      </c>
+      <c r="E186">
+        <v>3</v>
+      </c>
+      <c r="G186" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>44715.759421296294</v>
+      </c>
+      <c r="B187" t="s">
+        <v>7</v>
+      </c>
+      <c r="C187" t="s">
+        <v>43</v>
+      </c>
+      <c r="E187">
+        <v>458</v>
+      </c>
+      <c r="G187" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>44715.759421296294</v>
+      </c>
+      <c r="B188" t="s">
+        <v>7</v>
+      </c>
+      <c r="C188" t="s">
+        <v>29</v>
+      </c>
+      <c r="E188">
+        <v>37</v>
+      </c>
+      <c r="G188" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>44715.759421296294</v>
+      </c>
+      <c r="B189" t="s">
+        <v>7</v>
+      </c>
+      <c r="C189" t="s">
+        <v>30</v>
+      </c>
+      <c r="E189">
+        <v>7</v>
+      </c>
+      <c r="G189" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>44715.759421296294</v>
+      </c>
+      <c r="B190" t="s">
+        <v>7</v>
+      </c>
+      <c r="C190" t="s">
+        <v>31</v>
+      </c>
+      <c r="E190">
+        <v>456</v>
+      </c>
+      <c r="G190" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>44715.759421296294</v>
+      </c>
+      <c r="B191" t="s">
+        <v>7</v>
+      </c>
+      <c r="C191" t="s">
+        <v>32</v>
+      </c>
+      <c r="E191">
+        <v>898</v>
+      </c>
+      <c r="G191" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>44715.759421296294</v>
+      </c>
+      <c r="B192" t="s">
+        <v>7</v>
+      </c>
+      <c r="C192" t="s">
+        <v>13</v>
+      </c>
+      <c r="E192">
+        <v>2432</v>
+      </c>
+      <c r="G192" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>44715.759421296294</v>
+      </c>
+      <c r="B193" t="s">
+        <v>7</v>
+      </c>
+      <c r="C193" t="s">
+        <v>14</v>
+      </c>
+      <c r="E193">
+        <v>79</v>
+      </c>
+      <c r="G193" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>44715.759421296294</v>
+      </c>
+      <c r="B194" t="s">
+        <v>7</v>
+      </c>
+      <c r="C194" t="s">
+        <v>15</v>
+      </c>
+      <c r="E194">
+        <v>8</v>
+      </c>
+      <c r="G194" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>44715.759421296294</v>
+      </c>
+      <c r="B195" t="s">
+        <v>7</v>
+      </c>
+      <c r="C195" t="s">
+        <v>16</v>
+      </c>
+      <c r="E195">
+        <v>76</v>
+      </c>
+      <c r="G195" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>44715.759421296294</v>
+      </c>
+      <c r="B196" t="s">
+        <v>7</v>
+      </c>
+      <c r="C196" t="s">
+        <v>17</v>
+      </c>
+      <c r="E196">
+        <v>56</v>
+      </c>
+      <c r="G196" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>44715.759421296294</v>
+      </c>
+      <c r="B197" t="s">
+        <v>7</v>
+      </c>
+      <c r="C197" t="s">
+        <v>18</v>
+      </c>
+      <c r="E197">
+        <v>3838</v>
+      </c>
+      <c r="G197" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>44715.759409722225</v>
+      </c>
+      <c r="B198" t="s">
+        <v>7</v>
+      </c>
+      <c r="C198" t="s">
+        <v>19</v>
+      </c>
+      <c r="E198">
+        <v>23</v>
+      </c>
+      <c r="G198" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>44715.759409722225</v>
+      </c>
+      <c r="B199" t="s">
+        <v>7</v>
+      </c>
+      <c r="C199" t="s">
+        <v>20</v>
+      </c>
+      <c r="E199">
+        <v>234</v>
+      </c>
+      <c r="G199" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>44715.759409722225</v>
+      </c>
+      <c r="B200" t="s">
+        <v>7</v>
+      </c>
+      <c r="C200" t="s">
+        <v>21</v>
+      </c>
+      <c r="E200">
+        <v>5654</v>
+      </c>
+      <c r="G200" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>44715.759409722225</v>
+      </c>
+      <c r="B201" t="s">
+        <v>7</v>
+      </c>
+      <c r="C201" t="s">
+        <v>22</v>
+      </c>
+      <c r="E201">
+        <v>23</v>
+      </c>
+      <c r="G201" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>44715.759409722225</v>
+      </c>
+      <c r="B202" t="s">
+        <v>7</v>
+      </c>
+      <c r="C202" t="s">
+        <v>23</v>
+      </c>
+      <c r="E202">
+        <v>89</v>
+      </c>
+      <c r="G202" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>44715.759409722225</v>
+      </c>
+      <c r="B203" t="s">
+        <v>7</v>
+      </c>
+      <c r="C203" t="s">
+        <v>24</v>
+      </c>
+      <c r="E203">
+        <v>78</v>
+      </c>
+      <c r="G203" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>44715.759409722225</v>
+      </c>
+      <c r="B204" t="s">
+        <v>7</v>
+      </c>
+      <c r="C204" t="s">
+        <v>25</v>
+      </c>
+      <c r="E204">
+        <v>4789</v>
+      </c>
+      <c r="G204" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>44715.759409722225</v>
+      </c>
+      <c r="B205" t="s">
+        <v>7</v>
+      </c>
+      <c r="C205" t="s">
+        <v>26</v>
+      </c>
+      <c r="E205">
+        <v>12</v>
+      </c>
+      <c r="G205" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>44715.759409722225</v>
+      </c>
+      <c r="B206" t="s">
+        <v>7</v>
+      </c>
+      <c r="C206" t="s">
+        <v>27</v>
+      </c>
+      <c r="E206">
+        <v>234</v>
+      </c>
+      <c r="G206" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>44715.759409722225</v>
+      </c>
+      <c r="B207" t="s">
+        <v>7</v>
+      </c>
+      <c r="C207" t="s">
+        <v>28</v>
+      </c>
+      <c r="E207">
+        <v>87</v>
+      </c>
+      <c r="G207" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>44715.759409722225</v>
+      </c>
+      <c r="B208" t="s">
+        <v>7</v>
+      </c>
+      <c r="C208" t="s">
+        <v>8</v>
+      </c>
+      <c r="E208">
+        <v>546</v>
+      </c>
+      <c r="G208" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>44715.759409722225</v>
+      </c>
+      <c r="B209" t="s">
+        <v>7</v>
+      </c>
+      <c r="C209" t="s">
+        <v>10</v>
+      </c>
+      <c r="E209">
+        <v>77</v>
+      </c>
+      <c r="G209" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>44715.759409722225</v>
+      </c>
+      <c r="B210" t="s">
+        <v>7</v>
+      </c>
+      <c r="C210" t="s">
+        <v>11</v>
+      </c>
+      <c r="E210">
+        <v>34</v>
+      </c>
+      <c r="G210" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>44715.759409722225</v>
+      </c>
+      <c r="B211" t="s">
+        <v>7</v>
+      </c>
+      <c r="C211" t="s">
+        <v>12</v>
+      </c>
+      <c r="E211">
+        <v>342</v>
+      </c>
+      <c r="G211" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
